--- a/rose_pixel_art.xlsx
+++ b/rose_pixel_art.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -46,12 +46,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-        <bgColor rgb="00FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid"/>
     </fill>
   </fills>
@@ -67,11 +61,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -598,17 +591,14 @@
     <row r="48" ht="18" customHeight="1"/>
     <row r="49" ht="18" customHeight="1">
       <c r="AV49" s="1" t="n"/>
-      <c r="AW49" s="2" t="n"/>
-      <c r="AX49" s="2" t="n"/>
-      <c r="AY49" s="2" t="n"/>
       <c r="AZ49" s="1" t="n"/>
     </row>
     <row r="50" ht="18" customHeight="1">
       <c r="AU50" s="2" t="n"/>
       <c r="AV50" s="2" t="n"/>
       <c r="AW50" s="2" t="n"/>
-      <c r="AX50" s="3" t="n"/>
-      <c r="AY50" s="3" t="n"/>
+      <c r="AX50" s="2" t="n"/>
+      <c r="AY50" s="2" t="n"/>
       <c r="AZ50" s="2" t="n"/>
       <c r="BA50" s="2" t="n"/>
     </row>
@@ -616,37 +606,33 @@
       <c r="AU51" s="2" t="n"/>
       <c r="AV51" s="2" t="n"/>
       <c r="AW51" s="2" t="n"/>
-      <c r="AX51" s="3" t="n"/>
+      <c r="AX51" s="2" t="n"/>
       <c r="AY51" s="2" t="n"/>
       <c r="AZ51" s="2" t="n"/>
       <c r="BA51" s="2" t="n"/>
     </row>
     <row r="52" ht="18" customHeight="1">
       <c r="AV52" s="1" t="n"/>
-      <c r="AW52" s="2" t="n"/>
-      <c r="AY52" s="2" t="n"/>
       <c r="AZ52" s="1" t="n"/>
     </row>
-    <row r="53" ht="18" customHeight="1">
-      <c r="AX53" s="2" t="n"/>
-    </row>
+    <row r="53" ht="18" customHeight="1"/>
     <row r="54" ht="18" customHeight="1">
-      <c r="AX54" s="4" t="n"/>
-      <c r="AY54" s="4" t="n"/>
-      <c r="AZ54" s="4" t="n"/>
-      <c r="BA54" s="4" t="n"/>
+      <c r="AX54" s="3" t="n"/>
+      <c r="AY54" s="3" t="n"/>
+      <c r="AZ54" s="3" t="n"/>
+      <c r="BA54" s="3" t="n"/>
     </row>
     <row r="55" ht="18" customHeight="1">
-      <c r="AX55" s="4" t="n"/>
-      <c r="AY55" s="4" t="n"/>
-      <c r="AZ55" s="4" t="n"/>
-      <c r="BA55" s="4" t="n"/>
+      <c r="AX55" s="3" t="n"/>
+      <c r="AY55" s="3" t="n"/>
+      <c r="AZ55" s="3" t="n"/>
+      <c r="BA55" s="3" t="n"/>
     </row>
     <row r="56" ht="18" customHeight="1">
-      <c r="AX56" s="4" t="n"/>
-      <c r="AY56" s="4" t="n"/>
-      <c r="AZ56" s="4" t="n"/>
-      <c r="BA56" s="4" t="n"/>
+      <c r="AX56" s="3" t="n"/>
+      <c r="AY56" s="3" t="n"/>
+      <c r="AZ56" s="3" t="n"/>
+      <c r="BA56" s="3" t="n"/>
     </row>
     <row r="57" ht="18" customHeight="1"/>
     <row r="58" ht="18" customHeight="1"/>

--- a/rose_pixel_art.xlsx
+++ b/rose_pixel_art.xlsx
@@ -591,6 +591,9 @@
     <row r="48" ht="18" customHeight="1"/>
     <row r="49" ht="18" customHeight="1">
       <c r="AV49" s="1" t="n"/>
+      <c r="AW49" s="2" t="n"/>
+      <c r="AX49" s="2" t="n"/>
+      <c r="AY49" s="2" t="n"/>
       <c r="AZ49" s="1" t="n"/>
     </row>
     <row r="50" ht="18" customHeight="1">
@@ -613,9 +616,13 @@
     </row>
     <row r="52" ht="18" customHeight="1">
       <c r="AV52" s="1" t="n"/>
+      <c r="AW52" s="2" t="n"/>
+      <c r="AY52" s="2" t="n"/>
       <c r="AZ52" s="1" t="n"/>
     </row>
-    <row r="53" ht="18" customHeight="1"/>
+    <row r="53" ht="18" customHeight="1">
+      <c r="AX53" s="2" t="n"/>
+    </row>
     <row r="54" ht="18" customHeight="1">
       <c r="AX54" s="3" t="n"/>
       <c r="AY54" s="3" t="n"/>

--- a/rose_pixel_art.xlsx
+++ b/rose_pixel_art.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -46,6 +46,12 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid"/>
     </fill>
   </fills>
@@ -61,10 +67,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -600,8 +607,8 @@
       <c r="AU50" s="2" t="n"/>
       <c r="AV50" s="2" t="n"/>
       <c r="AW50" s="2" t="n"/>
-      <c r="AX50" s="2" t="n"/>
-      <c r="AY50" s="2" t="n"/>
+      <c r="AX50" s="3" t="n"/>
+      <c r="AY50" s="3" t="n"/>
       <c r="AZ50" s="2" t="n"/>
       <c r="BA50" s="2" t="n"/>
     </row>
@@ -609,7 +616,7 @@
       <c r="AU51" s="2" t="n"/>
       <c r="AV51" s="2" t="n"/>
       <c r="AW51" s="2" t="n"/>
-      <c r="AX51" s="2" t="n"/>
+      <c r="AX51" s="3" t="n"/>
       <c r="AY51" s="2" t="n"/>
       <c r="AZ51" s="2" t="n"/>
       <c r="BA51" s="2" t="n"/>
@@ -624,22 +631,22 @@
       <c r="AX53" s="2" t="n"/>
     </row>
     <row r="54" ht="18" customHeight="1">
-      <c r="AX54" s="3" t="n"/>
-      <c r="AY54" s="3" t="n"/>
-      <c r="AZ54" s="3" t="n"/>
-      <c r="BA54" s="3" t="n"/>
+      <c r="AX54" s="4" t="n"/>
+      <c r="AY54" s="4" t="n"/>
+      <c r="AZ54" s="4" t="n"/>
+      <c r="BA54" s="4" t="n"/>
     </row>
     <row r="55" ht="18" customHeight="1">
-      <c r="AX55" s="3" t="n"/>
-      <c r="AY55" s="3" t="n"/>
-      <c r="AZ55" s="3" t="n"/>
-      <c r="BA55" s="3" t="n"/>
+      <c r="AX55" s="4" t="n"/>
+      <c r="AY55" s="4" t="n"/>
+      <c r="AZ55" s="4" t="n"/>
+      <c r="BA55" s="4" t="n"/>
     </row>
     <row r="56" ht="18" customHeight="1">
-      <c r="AX56" s="3" t="n"/>
-      <c r="AY56" s="3" t="n"/>
-      <c r="AZ56" s="3" t="n"/>
-      <c r="BA56" s="3" t="n"/>
+      <c r="AX56" s="4" t="n"/>
+      <c r="AY56" s="4" t="n"/>
+      <c r="AZ56" s="4" t="n"/>
+      <c r="BA56" s="4" t="n"/>
     </row>
     <row r="57" ht="18" customHeight="1"/>
     <row r="58" ht="18" customHeight="1"/>
